--- a/xlsx/hfc_enumerators_blank.xlsx
+++ b/xlsx/hfc_enumerators_blank.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -130,716 +130,240 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1313,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,99 +849,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:XFD1048576">
-    <cfRule type="expression" dxfId="126" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$D1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1456,12 +980,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1491,7 +1015,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -1506,7 +1030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,7 +1060,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -1551,7 +1075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1564,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
@@ -1579,12 +1103,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576 BEX2:XFD1048576">
-    <cfRule type="expression" dxfId="119" priority="88">
+    <cfRule type="expression" dxfId="51" priority="88">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 BEX1:XFD1">
-    <cfRule type="expression" dxfId="118" priority="89">
+    <cfRule type="expression" dxfId="50" priority="89">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1601,12 +1125,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:BEW1048576">
-    <cfRule type="expression" dxfId="111" priority="76">
+    <cfRule type="expression" dxfId="49" priority="76">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:BEW1">
-    <cfRule type="expression" dxfId="110" priority="77">
+    <cfRule type="expression" dxfId="48" priority="77">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1623,12 +1147,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="99" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="97" priority="74">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1645,12 +1169,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="95" priority="70">
+    <cfRule type="expression" dxfId="45" priority="70">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="93" priority="71">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,12 +1191,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="87" priority="64">
+    <cfRule type="expression" dxfId="43" priority="64">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="85" priority="65">
+    <cfRule type="expression" dxfId="42" priority="65">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,12 +1213,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="83" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="81" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1711,12 +1235,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="79" priority="58">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="77" priority="59">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1733,12 +1257,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="75" priority="55">
+    <cfRule type="expression" dxfId="37" priority="55">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="73" priority="56">
+    <cfRule type="expression" dxfId="36" priority="56">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1755,12 +1279,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="71" priority="52">
+    <cfRule type="expression" dxfId="35" priority="52">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="69" priority="53">
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1777,12 +1301,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="67" priority="49">
+    <cfRule type="expression" dxfId="33" priority="49">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="65" priority="50">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1799,12 +1323,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="63" priority="46">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="61" priority="47">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1821,12 +1345,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="59" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="expression" dxfId="57" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1843,12 +1367,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="expression" dxfId="55" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1865,12 +1389,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="51" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="expression" dxfId="49" priority="38">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1887,12 +1411,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="47" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1909,12 +1433,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1931,12 +1455,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="18" priority="29">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1953,12 +1477,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1975,12 +1499,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1997,12 +1521,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2019,12 +1543,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2041,12 +1565,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2063,12 +1587,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2085,12 +1609,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,12 +1631,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2129,12 +1653,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
